--- a/Dienynas JAVA 1202.xlsx
+++ b/Dienynas JAVA 1202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9555" tabRatio="793" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9555" tabRatio="793" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="110">
   <si>
     <t>mėnuo / diena</t>
   </si>
@@ -534,6 +534,96 @@
   </si>
   <si>
     <t xml:space="preserve">12 </t>
+  </si>
+  <si>
+    <t>12 13</t>
+  </si>
+  <si>
+    <t>12 16</t>
+  </si>
+  <si>
+    <t>12 17</t>
+  </si>
+  <si>
+    <t>12 18</t>
+  </si>
+  <si>
+    <t>12 19</t>
+  </si>
+  <si>
+    <t>12 20</t>
+  </si>
+  <si>
+    <t>12 23</t>
+  </si>
+  <si>
+    <t>12 27</t>
+  </si>
+  <si>
+    <t>12 30</t>
+  </si>
+  <si>
+    <t>12 31</t>
+  </si>
+  <si>
+    <t>01 02</t>
+  </si>
+  <si>
+    <t>01 03</t>
+  </si>
+  <si>
+    <t>01 06</t>
+  </si>
+  <si>
+    <t>01 07</t>
+  </si>
+  <si>
+    <t>01 08</t>
+  </si>
+  <si>
+    <t>01 09</t>
+  </si>
+  <si>
+    <t>01 10</t>
+  </si>
+  <si>
+    <t>01 13</t>
+  </si>
+  <si>
+    <t>01 14</t>
+  </si>
+  <si>
+    <t>01 15</t>
+  </si>
+  <si>
+    <t>01 16</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 </t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -625,12 +715,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -750,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -786,9 +882,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -859,8 +952,36 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,7 +1296,7 @@
     <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
     <col min="3" max="27" width="2.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="18" customWidth="1"/>
     <col min="29" max="29" width="4.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" style="6" customWidth="1"/>
     <col min="31" max="31" width="15.5703125" style="6" customWidth="1"/>
@@ -1212,7 +1333,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="16"/>
+      <c r="AB1" s="15"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
@@ -1247,101 +1368,101 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="17"/>
+      <c r="AB2" s="16"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1365,7 +1486,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="18"/>
+      <c r="AB5" s="17"/>
       <c r="AC5" s="10">
         <v>8</v>
       </c>
@@ -1378,9 +1499,9 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1404,7 +1525,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="18"/>
+      <c r="AB6" s="17"/>
       <c r="AC6" s="10">
         <v>4</v>
       </c>
@@ -1417,9 +1538,9 @@
       <c r="AF6" s="10"/>
     </row>
     <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1443,7 +1564,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="18"/>
+      <c r="AB7" s="17"/>
       <c r="AC7" s="10">
         <v>4</v>
       </c>
@@ -1456,9 +1577,9 @@
       <c r="AF7" s="10"/>
     </row>
     <row r="8" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1482,7 +1603,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="17"/>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -1495,9 +1616,9 @@
       <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1521,7 +1642,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="18"/>
+      <c r="AB9" s="17"/>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -1560,7 +1681,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="17"/>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -1599,7 +1720,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="18"/>
+      <c r="AB11" s="17"/>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -1638,7 +1759,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="18"/>
+      <c r="AB12" s="17"/>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -1677,7 +1798,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="18"/>
+      <c r="AB13" s="17"/>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -1716,7 +1837,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="18"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -1755,7 +1876,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="18"/>
+      <c r="AB15" s="17"/>
       <c r="AC15" s="10">
         <v>5</v>
       </c>
@@ -1794,7 +1915,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="18"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="10">
         <v>3</v>
       </c>
@@ -1833,7 +1954,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="18"/>
+      <c r="AB17" s="17"/>
       <c r="AC17" s="10">
         <v>8</v>
       </c>
@@ -1872,7 +1993,7 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AB18" s="18" t="s">
+      <c r="AB18" s="17" t="s">
         <v>8</v>
       </c>
       <c r="AC18" s="10">
@@ -1903,17 +2024,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="26" width="2.42578125" style="19" customWidth="1"/>
+    <col min="3" max="26" width="2.42578125" style="18" customWidth="1"/>
     <col min="27" max="27" width="2.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="18" customWidth="1"/>
     <col min="29" max="29" width="4.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" style="6" customWidth="1"/>
     <col min="31" max="31" width="15.5703125" style="6" customWidth="1"/>
@@ -1925,221 +2046,221 @@
         <v>13</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="16"/>
+      <c r="AB1" s="15"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="1:32" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="17"/>
+      <c r="AB2" s="16"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="40" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AB5" s="18" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AB5" s="43" t="s">
         <v>68</v>
       </c>
       <c r="AC5" s="10">
@@ -2154,35 +2275,35 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AB6" s="18" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AB6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="AC6" s="10">
@@ -2197,33 +2318,33 @@
       <c r="AF6" s="10"/>
     </row>
     <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AB7" s="18" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="43" t="s">
         <v>69</v>
       </c>
       <c r="AC7" s="10">
@@ -2238,33 +2359,33 @@
       <c r="AF7" s="10"/>
     </row>
     <row r="8" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AB8" s="18" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AB8" s="43" t="s">
         <v>70</v>
       </c>
       <c r="AC8" s="10">
@@ -2280,32 +2401,32 @@
     </row>
     <row r="9" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AB9" s="18" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AB9" s="43" t="s">
         <v>71</v>
       </c>
       <c r="AC9" s="10">
@@ -2322,31 +2443,31 @@
     <row r="10" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AB10" s="18" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AB10" s="43" t="s">
         <v>72</v>
       </c>
       <c r="AC10" s="10">
@@ -2363,31 +2484,31 @@
     <row r="11" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AB11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AB11" s="17"/>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -2402,31 +2523,31 @@
     <row r="12" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AB12" s="17"/>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -2441,31 +2562,31 @@
     <row r="13" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AB13" s="18" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AB13" s="43" t="s">
         <v>73</v>
       </c>
       <c r="AC13" s="10">
@@ -2482,31 +2603,31 @@
     <row r="14" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AB14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -2521,31 +2642,31 @@
     <row r="15" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AB15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AB15" s="17"/>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -2560,31 +2681,31 @@
     <row r="16" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AB16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -2599,31 +2720,31 @@
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AB17" s="18" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AB17" s="17" t="s">
         <v>8</v>
       </c>
       <c r="AC17" s="10">
@@ -2741,92 +2862,92 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="10"/>
@@ -2867,7 +2988,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -2907,7 +3028,7 @@
     <row r="7" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2946,7 +3067,7 @@
     <row r="8" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2985,7 +3106,7 @@
     <row r="9" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3392,7 +3513,7 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,33 +3599,57 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="45">
         <v>12</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="45">
         <v>12</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="45">
         <v>12</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="F3" s="45">
+        <v>12</v>
+      </c>
+      <c r="G3" s="45">
+        <v>12</v>
+      </c>
+      <c r="H3" s="45">
+        <v>12</v>
+      </c>
+      <c r="I3" s="45">
+        <v>12</v>
+      </c>
+      <c r="J3" s="45">
+        <v>12</v>
+      </c>
+      <c r="K3" s="45">
+        <v>12</v>
+      </c>
+      <c r="L3" s="45">
+        <v>12</v>
+      </c>
+      <c r="M3" s="45">
+        <v>12</v>
+      </c>
+      <c r="N3" s="45">
+        <v>12</v>
+      </c>
+      <c r="O3" s="45">
+        <v>12</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>101</v>
+      </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -3515,46 +3660,70 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="9">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="45">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="45">
         <v>11</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="45">
         <v>12</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="F4" s="45">
+        <v>13</v>
+      </c>
+      <c r="G4" s="45">
+        <v>16</v>
+      </c>
+      <c r="H4" s="45">
+        <v>17</v>
+      </c>
+      <c r="I4" s="45">
+        <v>18</v>
+      </c>
+      <c r="J4" s="45">
+        <v>19</v>
+      </c>
+      <c r="K4" s="45">
+        <v>20</v>
+      </c>
+      <c r="L4" s="45">
+        <v>23</v>
+      </c>
+      <c r="M4" s="45">
+        <v>27</v>
+      </c>
+      <c r="N4" s="45">
+        <v>30</v>
+      </c>
+      <c r="O4" s="45">
+        <v>31</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -3565,17 +3734,17 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3587,18 +3756,42 @@
       <c r="E5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -3608,7 +3801,9 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10"/>
+      <c r="AB5" s="44" t="s">
+        <v>80</v>
+      </c>
       <c r="AC5" s="10">
         <v>8</v>
       </c>
@@ -3622,7 +3817,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3647,7 +3842,9 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="AB6" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="AC6" s="10">
         <v>8</v>
       </c>
@@ -3686,7 +3883,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10"/>
+      <c r="AB7" s="44" t="s">
+        <v>82</v>
+      </c>
       <c r="AC7" s="10">
         <v>8</v>
       </c>
@@ -3738,43 +3937,45 @@
       <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="31" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AB9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="30" t="s">
         <v>41</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="31"/>
+      <c r="AF9" s="30"/>
     </row>
     <row r="10" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -3804,7 +4005,9 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="AB10" s="44" t="s">
+        <v>86</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -3844,7 +4047,9 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -3884,7 +4089,9 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="44" t="s">
+        <v>85</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -3924,7 +4131,9 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -3976,9 +4185,9 @@
       </c>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -4004,7 +4213,9 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="AB15" s="44" t="s">
+        <v>88</v>
+      </c>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -4016,9 +4227,9 @@
       </c>
       <c r="AF15" s="10"/>
     </row>
-    <row r="16" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4044,7 +4255,9 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AB16" s="44" t="s">
+        <v>89</v>
+      </c>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -4056,9 +4269,9 @@
       </c>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4084,7 +4297,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AC17" s="10">
@@ -4098,7 +4311,7 @@
       </c>
       <c r="AF17" s="10"/>
     </row>
-    <row r="18" spans="1:32" s="32" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="31" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -4126,7 +4339,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" s="44" t="s">
         <v>75</v>
       </c>
       <c r="AC18" s="10">
@@ -4140,7 +4353,7 @@
       </c>
       <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:32" s="32" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="31" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4168,7 +4381,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="10" t="s">
+      <c r="AB19" s="44" t="s">
         <v>76</v>
       </c>
       <c r="AC19" s="10">
@@ -4182,7 +4395,7 @@
       </c>
       <c r="AF19" s="10"/>
     </row>
-    <row r="20" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4210,7 +4423,9 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
+      <c r="AB20" s="44" t="s">
+        <v>90</v>
+      </c>
       <c r="AC20" s="10">
         <v>8</v>
       </c>
@@ -4222,7 +4437,7 @@
       </c>
       <c r="AF20" s="10"/>
     </row>
-    <row r="21" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4250,7 +4465,9 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
+      <c r="AB21" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="AC21" s="10">
         <v>8</v>
       </c>
@@ -4262,7 +4479,7 @@
       </c>
       <c r="AF21" s="10"/>
     </row>
-    <row r="22" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4302,7 +4519,7 @@
       </c>
       <c r="AF22" s="10"/>
     </row>
-    <row r="23" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4342,7 +4559,7 @@
       </c>
       <c r="AF23" s="10"/>
     </row>
-    <row r="24" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4382,7 +4599,7 @@
       </c>
       <c r="AF24" s="10"/>
     </row>
-    <row r="25" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4422,7 +4639,7 @@
       </c>
       <c r="AF25" s="10"/>
     </row>
-    <row r="26" spans="1:32" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4463,42 +4680,42 @@
       <c r="AF26" s="10"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AB27" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC27" s="27">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AB27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="26">
         <f>SUM(AC5:AC26)</f>
         <v>176</v>
       </c>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4520,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
@@ -4607,10 +4824,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="9"/>
@@ -4638,25 +4855,25 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4682,17 +4899,17 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="10"/>
@@ -4733,7 +4950,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5266,92 +5483,92 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="10"/>
@@ -5392,7 +5609,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5819,7 +6036,7 @@
       </c>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5877,7 +6094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5886,7 +6103,7 @@
     <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
     <col min="3" max="27" width="2.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="18" customWidth="1"/>
     <col min="29" max="29" width="4.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" style="6" customWidth="1"/>
     <col min="31" max="31" width="15.5703125" style="6" customWidth="1"/>
@@ -5923,7 +6140,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="16"/>
+      <c r="AB1" s="15"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
@@ -5958,98 +6175,98 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="17"/>
+      <c r="AB2" s="16"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="10"/>
@@ -6076,7 +6293,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="18"/>
+      <c r="AB5" s="17"/>
       <c r="AC5" s="10">
         <v>8</v>
       </c>
@@ -6090,7 +6307,7 @@
     </row>
     <row r="6" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6115,7 +6332,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="18"/>
+      <c r="AB6" s="17"/>
       <c r="AC6" s="10">
         <v>8</v>
       </c>
@@ -6129,7 +6346,7 @@
     </row>
     <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6154,7 +6371,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="18"/>
+      <c r="AB7" s="17"/>
       <c r="AC7" s="10">
         <v>8</v>
       </c>
@@ -6168,7 +6385,7 @@
     </row>
     <row r="8" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -6193,7 +6410,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="17"/>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -6207,7 +6424,7 @@
     </row>
     <row r="9" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6232,7 +6449,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="18"/>
+      <c r="AB9" s="17"/>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -6246,7 +6463,7 @@
     </row>
     <row r="10" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6271,7 +6488,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="17"/>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -6285,7 +6502,7 @@
     </row>
     <row r="11" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6310,7 +6527,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="18"/>
+      <c r="AB11" s="17"/>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -6324,7 +6541,7 @@
     </row>
     <row r="12" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6349,7 +6566,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="18"/>
+      <c r="AB12" s="17"/>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -6363,7 +6580,7 @@
     </row>
     <row r="13" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6388,7 +6605,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="18"/>
+      <c r="AB13" s="17"/>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -6402,7 +6619,7 @@
     </row>
     <row r="14" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6427,7 +6644,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="18"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -6441,7 +6658,7 @@
     </row>
     <row r="15" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6466,7 +6683,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="18"/>
+      <c r="AB15" s="17"/>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -6480,7 +6697,7 @@
     </row>
     <row r="16" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6505,7 +6722,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="18"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -6519,7 +6736,7 @@
     </row>
     <row r="17" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -6544,7 +6761,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="18"/>
+      <c r="AB17" s="17"/>
       <c r="AC17" s="10">
         <v>8</v>
       </c>
@@ -6558,7 +6775,7 @@
     </row>
     <row r="18" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6583,7 +6800,7 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AB18" s="18"/>
+      <c r="AB18" s="17"/>
       <c r="AC18" s="10">
         <v>8</v>
       </c>
@@ -6597,7 +6814,7 @@
     </row>
     <row r="19" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6622,7 +6839,7 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="17"/>
       <c r="AC19" s="10">
         <v>8</v>
       </c>
@@ -6636,7 +6853,7 @@
     </row>
     <row r="20" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6661,7 +6878,7 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
-      <c r="AB20" s="18"/>
+      <c r="AB20" s="17"/>
       <c r="AC20" s="10">
         <v>8</v>
       </c>
@@ -6675,7 +6892,7 @@
     </row>
     <row r="21" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6700,7 +6917,7 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
-      <c r="AB21" s="18"/>
+      <c r="AB21" s="17"/>
       <c r="AC21" s="10">
         <v>8</v>
       </c>
@@ -6714,7 +6931,7 @@
     </row>
     <row r="22" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6739,7 +6956,7 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
-      <c r="AB22" s="18"/>
+      <c r="AB22" s="17"/>
       <c r="AC22" s="10">
         <v>8</v>
       </c>
@@ -6753,7 +6970,7 @@
     </row>
     <row r="23" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6778,7 +6995,7 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-      <c r="AB23" s="18"/>
+      <c r="AB23" s="17"/>
       <c r="AC23" s="10">
         <v>8</v>
       </c>
@@ -6792,7 +7009,7 @@
     </row>
     <row r="24" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6817,7 +7034,7 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
-      <c r="AB24" s="18"/>
+      <c r="AB24" s="17"/>
       <c r="AC24" s="10">
         <v>8</v>
       </c>
@@ -6831,7 +7048,7 @@
     </row>
     <row r="25" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6856,7 +7073,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
-      <c r="AB25" s="18"/>
+      <c r="AB25" s="17"/>
       <c r="AC25" s="10">
         <v>8</v>
       </c>
@@ -6870,7 +7087,7 @@
     </row>
     <row r="26" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -6895,7 +7112,7 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-      <c r="AB26" s="18"/>
+      <c r="AB26" s="17"/>
       <c r="AC26" s="10">
         <v>8</v>
       </c>
@@ -6909,7 +7126,7 @@
     </row>
     <row r="27" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -6934,7 +7151,7 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AB27" s="18"/>
+      <c r="AB27" s="17"/>
       <c r="AC27" s="10">
         <v>8</v>
       </c>
@@ -6973,7 +7190,7 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
-      <c r="AB28" s="18" t="s">
+      <c r="AB28" s="17" t="s">
         <v>8</v>
       </c>
       <c r="AC28" s="10">
@@ -7004,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7091,92 +7308,128 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="C3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="10"/>
@@ -7203,7 +7456,9 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10"/>
+      <c r="AB5" s="44" t="s">
+        <v>92</v>
+      </c>
       <c r="AC5" s="10">
         <v>8</v>
       </c>
@@ -7215,7 +7470,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -7240,7 +7495,9 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="AB6" s="44" t="s">
+        <v>93</v>
+      </c>
       <c r="AC6" s="10">
         <v>8</v>
       </c>
@@ -7253,7 +7510,7 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -7277,7 +7534,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10"/>
+      <c r="AB7" s="44" t="s">
+        <v>94</v>
+      </c>
       <c r="AC7" s="10">
         <v>8</v>
       </c>
@@ -7290,7 +7549,7 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -7314,7 +7573,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="AB8" s="44" t="s">
+        <v>95</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -7325,8 +7586,8 @@
       <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -7351,7 +7612,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="AB9" s="44" t="s">
+        <v>96</v>
+      </c>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -7388,7 +7651,9 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="AB10" s="44" t="s">
+        <v>97</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -7425,7 +7690,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="44" t="s">
+        <v>98</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -7462,7 +7729,9 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="44" t="s">
+        <v>99</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -7499,7 +7768,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="44" t="s">
+        <v>100</v>
+      </c>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -7639,64 +7910,207 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="33"/>
-    <col min="5" max="5" width="9.140625" style="33"/>
+    <col min="3" max="3" width="8.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="47">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D2" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="47">
+        <v>2</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="47">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="47">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="47">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C7" s="47">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C8" s="47">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C9" s="47">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
         <v>76</v>
+      </c>
+      <c r="C10" s="47">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="47">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="47">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="47">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Dienynas JAVA 1202.xlsx
+++ b/Dienynas JAVA 1202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9555" tabRatio="793" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9555" tabRatio="793" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="149">
   <si>
     <t>mėnuo / diena</t>
   </si>
@@ -624,6 +624,123 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>01 17</t>
+  </si>
+  <si>
+    <t>01 20</t>
+  </si>
+  <si>
+    <t>01 21</t>
+  </si>
+  <si>
+    <t>01 22</t>
+  </si>
+  <si>
+    <t>01 23</t>
+  </si>
+  <si>
+    <t>01 24</t>
+  </si>
+  <si>
+    <t>01 27</t>
+  </si>
+  <si>
+    <t>01 28</t>
+  </si>
+  <si>
+    <t>01 29</t>
+  </si>
+  <si>
+    <t>01 30</t>
+  </si>
+  <si>
+    <t>01 31</t>
+  </si>
+  <si>
+    <t>02 03</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>02 04</t>
+  </si>
+  <si>
+    <t>02 05</t>
+  </si>
+  <si>
+    <t>02 06</t>
+  </si>
+  <si>
+    <t>02 07</t>
+  </si>
+  <si>
+    <t>02 10</t>
+  </si>
+  <si>
+    <t>02 11</t>
+  </si>
+  <si>
+    <t>02 12</t>
+  </si>
+  <si>
+    <t>02 13</t>
+  </si>
+  <si>
+    <t>02 14</t>
+  </si>
+  <si>
+    <t>02 17</t>
+  </si>
+  <si>
+    <t>02 18</t>
+  </si>
+  <si>
+    <t>02 19</t>
+  </si>
+  <si>
+    <t>02 20</t>
   </si>
 </sst>
 </file>
@@ -846,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -934,24 +1051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +1081,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1374,10 +1494,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14"/>
@@ -1405,25 +1525,25 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1449,11 +1569,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -2112,28 +2232,28 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="34" t="s">
         <v>79</v>
       </c>
       <c r="I3" s="14"/>
@@ -2155,41 +2275,41 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="34" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="14"/>
@@ -2211,11 +2331,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
@@ -2224,22 +2344,22 @@
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="37" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="17"/>
@@ -2260,7 +2380,7 @@
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
-      <c r="AB5" s="43" t="s">
+      <c r="AB5" s="37" t="s">
         <v>68</v>
       </c>
       <c r="AC5" s="10">
@@ -2303,7 +2423,7 @@
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
-      <c r="AB6" s="43" t="s">
+      <c r="AB6" s="37" t="s">
         <v>68</v>
       </c>
       <c r="AC6" s="10">
@@ -2344,7 +2464,7 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="43" t="s">
+      <c r="AB7" s="37" t="s">
         <v>69</v>
       </c>
       <c r="AC7" s="10">
@@ -2385,7 +2505,7 @@
       <c r="X8" s="17"/>
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
-      <c r="AB8" s="43" t="s">
+      <c r="AB8" s="37" t="s">
         <v>70</v>
       </c>
       <c r="AC8" s="10">
@@ -2426,7 +2546,7 @@
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
-      <c r="AB9" s="43" t="s">
+      <c r="AB9" s="37" t="s">
         <v>71</v>
       </c>
       <c r="AC9" s="10">
@@ -2467,7 +2587,7 @@
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
-      <c r="AB10" s="43" t="s">
+      <c r="AB10" s="37" t="s">
         <v>72</v>
       </c>
       <c r="AC10" s="10">
@@ -2586,7 +2706,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
-      <c r="AB13" s="43" t="s">
+      <c r="AB13" s="37" t="s">
         <v>73</v>
       </c>
       <c r="AC13" s="10">
@@ -2776,7 +2896,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AB5" sqref="AB5:AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,24 +2982,48 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="C3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -2893,37 +3037,61 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -2937,11 +3105,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -2950,18 +3118,42 @@
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -2974,7 +3166,9 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10"/>
+      <c r="AB5" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="AC5" s="10">
         <v>8</v>
       </c>
@@ -3013,7 +3207,9 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="AB6" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="AC6" s="10">
         <v>4</v>
       </c>
@@ -3052,7 +3248,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10"/>
+      <c r="AB7" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="AC7" s="10">
         <v>4</v>
       </c>
@@ -3091,7 +3289,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="AB8" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -3130,7 +3330,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="AB9" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -3169,7 +3371,9 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="AB10" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -3208,7 +3412,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -3247,7 +3453,9 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -3286,7 +3494,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -3325,7 +3535,9 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10"/>
+      <c r="AB14" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -3364,7 +3576,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="AB15" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -3403,7 +3617,9 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AB16" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -3442,7 +3658,9 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="10"/>
+      <c r="AB17" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="AC17" s="10">
         <v>8</v>
       </c>
@@ -3599,55 +3817,55 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>12</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <v>12</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="39">
         <v>12</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="39">
         <v>12</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="39">
         <v>12</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="39">
         <v>12</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="39">
         <v>12</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="39">
         <v>12</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="39">
         <v>12</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="39">
         <v>12</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="39">
         <v>12</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="39">
         <v>12</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="39">
         <v>12</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="42" t="s">
         <v>101</v>
       </c>
       <c r="R3" s="9"/>
@@ -3660,68 +3878,68 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="45">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="39">
         <v>10</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="39">
         <v>11</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="39">
         <v>12</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="39">
         <v>13</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="39">
         <v>16</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="39">
         <v>17</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="39">
         <v>18</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="39">
         <v>19</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="39">
         <v>20</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="39">
         <v>23</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="39">
         <v>27</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="39">
         <v>30</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="39">
         <v>31</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="42" t="s">
         <v>78</v>
       </c>
       <c r="R4" s="9"/>
@@ -3734,11 +3952,11 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -3801,7 +4019,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="44" t="s">
+      <c r="AB5" s="38" t="s">
         <v>80</v>
       </c>
       <c r="AC5" s="10">
@@ -3842,7 +4060,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="44" t="s">
+      <c r="AB6" s="38" t="s">
         <v>81</v>
       </c>
       <c r="AC6" s="10">
@@ -3883,7 +4101,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="44" t="s">
+      <c r="AB7" s="38" t="s">
         <v>82</v>
       </c>
       <c r="AC7" s="10">
@@ -3963,7 +4181,7 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
-      <c r="AB9" s="49" t="s">
+      <c r="AB9" s="43" t="s">
         <v>83</v>
       </c>
       <c r="AC9" s="30">
@@ -4005,7 +4223,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-      <c r="AB10" s="44" t="s">
+      <c r="AB10" s="38" t="s">
         <v>86</v>
       </c>
       <c r="AC10" s="10">
@@ -4047,7 +4265,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="44" t="s">
+      <c r="AB11" s="38" t="s">
         <v>84</v>
       </c>
       <c r="AC11" s="10">
@@ -4089,7 +4307,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="44" t="s">
+      <c r="AB12" s="38" t="s">
         <v>85</v>
       </c>
       <c r="AC12" s="10">
@@ -4131,7 +4349,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="44" t="s">
+      <c r="AB13" s="38" t="s">
         <v>87</v>
       </c>
       <c r="AC13" s="10">
@@ -4213,7 +4431,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="44" t="s">
+      <c r="AB15" s="38" t="s">
         <v>88</v>
       </c>
       <c r="AC15" s="10">
@@ -4255,7 +4473,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="44" t="s">
+      <c r="AB16" s="38" t="s">
         <v>89</v>
       </c>
       <c r="AC16" s="10">
@@ -4297,7 +4515,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="44" t="s">
+      <c r="AB17" s="38" t="s">
         <v>74</v>
       </c>
       <c r="AC17" s="10">
@@ -4339,7 +4557,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="44" t="s">
+      <c r="AB18" s="38" t="s">
         <v>75</v>
       </c>
       <c r="AC18" s="10">
@@ -4381,7 +4599,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="44" t="s">
+      <c r="AB19" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AC19" s="10">
@@ -4423,7 +4641,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="44" t="s">
+      <c r="AB20" s="38" t="s">
         <v>90</v>
       </c>
       <c r="AC20" s="10">
@@ -4465,7 +4683,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="44" t="s">
+      <c r="AB21" s="38" t="s">
         <v>91</v>
       </c>
       <c r="AC21" s="10">
@@ -4824,10 +5042,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="9"/>
@@ -4855,25 +5073,25 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4899,11 +5117,11 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -5483,10 +5701,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14"/>
@@ -5514,25 +5732,25 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -5558,11 +5776,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -6094,8 +6312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,25 +6399,51 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -6212,38 +6456,64 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
@@ -6256,11 +6526,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -6269,19 +6539,45 @@
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -6293,7 +6589,9 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="17"/>
+      <c r="AB5" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="AC5" s="10">
         <v>8</v>
       </c>
@@ -6332,7 +6630,9 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AC6" s="10">
         <v>8</v>
       </c>
@@ -6371,7 +6671,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="17"/>
+      <c r="AB7" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="AC7" s="10">
         <v>8</v>
       </c>
@@ -6410,7 +6712,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -6449,7 +6753,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="17"/>
+      <c r="AB9" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -6488,7 +6794,9 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -6527,7 +6835,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="17"/>
+      <c r="AB11" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -6566,7 +6876,9 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -6605,7 +6917,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="17"/>
+      <c r="AB13" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -6644,7 +6958,9 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -6683,7 +6999,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="17"/>
+      <c r="AB15" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -6722,7 +7040,9 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -6761,7 +7081,9 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="17"/>
+      <c r="AB17" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="AC17" s="10">
         <v>8</v>
       </c>
@@ -7221,8 +7543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7308,37 +7630,37 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="34" t="s">
         <v>101</v>
       </c>
       <c r="L3" s="14"/>
@@ -7357,50 +7679,50 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="40" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="34" t="s">
         <v>109</v>
       </c>
       <c r="L4" s="14"/>
@@ -7419,11 +7741,11 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -7432,15 +7754,33 @@
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -7456,7 +7796,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="44" t="s">
+      <c r="AB5" s="38" t="s">
         <v>92</v>
       </c>
       <c r="AC5" s="10">
@@ -7495,7 +7835,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="44" t="s">
+      <c r="AB6" s="38" t="s">
         <v>93</v>
       </c>
       <c r="AC6" s="10">
@@ -7534,7 +7874,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="44" t="s">
+      <c r="AB7" s="38" t="s">
         <v>94</v>
       </c>
       <c r="AC7" s="10">
@@ -7573,7 +7913,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="44" t="s">
+      <c r="AB8" s="38" t="s">
         <v>95</v>
       </c>
       <c r="AC8" s="10">
@@ -7612,7 +7952,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="44" t="s">
+      <c r="AB9" s="38" t="s">
         <v>96</v>
       </c>
       <c r="AC9" s="10">
@@ -7651,7 +7991,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="44" t="s">
+      <c r="AB10" s="38" t="s">
         <v>97</v>
       </c>
       <c r="AC10" s="10">
@@ -7690,7 +8030,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="44" t="s">
+      <c r="AB11" s="38" t="s">
         <v>98</v>
       </c>
       <c r="AC11" s="10">
@@ -7729,7 +8069,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="44" t="s">
+      <c r="AB12" s="38" t="s">
         <v>99</v>
       </c>
       <c r="AC12" s="10">
@@ -7768,7 +8108,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="44" t="s">
+      <c r="AB13" s="38" t="s">
         <v>100</v>
       </c>
       <c r="AC13" s="10">
@@ -7923,38 +8263,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="41">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="41">
         <v>2</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="41">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -7962,10 +8302,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="41">
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -7973,10 +8313,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="41">
         <v>2</v>
       </c>
       <c r="D6" t="s">
@@ -7984,10 +8324,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="41">
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -7995,10 +8335,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="41">
         <v>4</v>
       </c>
       <c r="D8" t="s">
@@ -8006,10 +8346,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="41">
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -8017,10 +8357,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="41">
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -8028,10 +8368,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="41">
         <v>4</v>
       </c>
       <c r="D11" t="s">
@@ -8039,10 +8379,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="41">
         <v>4</v>
       </c>
       <c r="D12" t="s">
@@ -8050,66 +8390,66 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="41">
         <v>4</v>
       </c>
     </row>
